--- a/python-excel-addins-start.xlsx
+++ b/python-excel-addins-start.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1B8531-FED0-4EFE-9110-2168657FFABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016DFE75-625A-4CF4-A0D9-4FC19500AB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
   </bookViews>
@@ -2123,7 +2123,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="1151" row="8">
+  <wetp:taskpane dockstate="right" visibility="0" width="700" row="8">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -2140,6 +2140,13 @@
   </we:properties>
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
 </we:webextension>
 </file>
 
@@ -2148,7 +2155,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
